--- a/SMLMS.Web/ClientApp/src/assets/file/Employee.xlsx
+++ b/SMLMS.Web/ClientApp/src/assets/file/Employee.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\slack daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Gorab_data\Project\LAMS\SMLMS.Web\ClientApp\src\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4171FB4-4852-4BC3-9D52-6ACA9598AA4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB034505-2F98-4AB3-9F18-3C3F983B30A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{B46260E8-06D9-4890-8C29-4DC4A3B7758A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,36 +61,15 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Gorab</t>
-  </si>
-  <si>
-    <t>Raturi</t>
-  </si>
-  <si>
-    <t>gorab@sourcemash.com</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Mukesh</t>
-  </si>
-  <si>
-    <t>Chabbra</t>
-  </si>
-  <si>
-    <t>mukesh@sourcemash.com</t>
-  </si>
-  <si>
     <t>Integration</t>
   </si>
   <si>
-    <t>DotNet</t>
-  </si>
-  <si>
     <t>Magento</t>
   </si>
   <si>
@@ -106,13 +85,37 @@
     <t>Developer</t>
   </si>
   <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Designer</t>
+    <t>QA Team</t>
+  </si>
+  <si>
+    <t>Design Team</t>
+  </si>
+  <si>
+    <t>Data Team</t>
+  </si>
+  <si>
+    <t>Human Resource</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Integeration</t>
+  </si>
+  <si>
+    <t>hrsm@sourcemash.com</t>
+  </si>
+  <si>
+    <t>integration@sourcemash.com</t>
+  </si>
+  <si>
+    <t>Dev</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B1A535-69CC-4CC3-A988-3341ED8C739E}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,19 +535,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>43927</v>
@@ -556,24 +559,24 @@
         <v>343243422</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>43927</v>
@@ -585,8 +588,23 @@
         <v>343243422</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -606,7 +624,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{36CA3049-44A1-457A-ACBA-09370B424D48}">
           <x14:formula1>
-            <xm:f>Sheet2!$A$2:$A$6</xm:f>
+            <xm:f>Sheet2!$A$2:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
@@ -618,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D220A94A-5160-4099-B628-841CDF62DEA1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,45 +658,61 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>